--- a/01-practice/02-bad-data-3.xlsx
+++ b/01-practice/02-bad-data-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydb/Work/fnkc-r/01-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1245A84-C3EB-A940-8BBE-716E05145F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174117E4-382D-8A4D-A98F-557514150677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{36B87995-5820-634B-9BD6-D9F9D8BBE654}"/>
   </bookViews>
@@ -103,12 +103,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -191,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,6 +233,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D7933-6132-E946-AF1F-771C5778D472}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -589,7 +605,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -612,7 +628,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="13">
         <v>1.23</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -635,7 +651,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>4.5</v>
       </c>
       <c r="B4" s="3">
